--- a/biology/Histoire de la zoologie et de la botanique/Charles_Hamilton_Smith/Charles_Hamilton_Smith.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Hamilton_Smith/Charles_Hamilton_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Hamilton Smith est un militaire, naturaliste, artiste et collectionneur d'antiquités britannique, né le 26 décembre 1776 à Vroenhoven sis alors dans la  province du Limbourg (désignée comme "Flandre-Orientale" à l'époque autrichienne) et mort le 21 septembre 1859 à Plymouth.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa carrière débute en 1787 quand il étudie à l'Académie militaire autrichienne l'artillerie et le génie à Malines et à Louvain (Belgique). Il prend part aux guerres napoléoniennes et ne quitte l'armée qu'en 1820. Durant son service, il voyage beaucoup notamment aux Caraïbes, au Canada et aux États-Unis. Le reste du temps, il est en poste dans un bureau en Grande-Bretagne.
 Ses travaux sur la meilleure couleur des uniformes militaires sont célèbres. Devant la précision sans cesse améliorée des armes à feu, il expérimente dans les années 1800 l'exactitude du tir en fonction de la couleur de la cible visée. Il démontre ainsi qu’un uniforme gris (ou à un moins degré vert) est moins facile à viser qu’un uniforme rouge. Il recommande alors que le gris soit adopté pour l'infanterie légère. L’armée britannique ne suit pas ses conseils et choisit le vert pour l’infanterie légère.
@@ -545,7 +559,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Participation à (en) George Cuvier (trad. Edward Griffith et al.), The Animal Kingdom Arranged in Conformity with its Organization [« Le Règne animal distribué d'après son organisation »], t. 1 : The Class Mammalia, Londres, G. B. Whittaker, 1827 (OCLC 595293293, lire en ligne)
 (en) Charles Hamilton Smith (préf. Doreen Yarwood), Ancient Costumes of Great Britain and Ireland: From the Druids to the Tudors, Londres, Braken Books, 1989 (1re éd. 1814) (ISBN 1-85170-253-9 et 978-1-85170-253-4).
